--- a/취업 준비용 정리문서.xlsx
+++ b/취업 준비용 정리문서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>사람인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,117 +39,6 @@
   </si>
   <si>
     <t>부산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Back-End(Java </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개발자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>채용</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,12 +148,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>네오텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹기반 소프트웨어 개발
+경력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>웹개발(JSP, Java) 
 신입 및 경력개발자 모집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네오텍</t>
+    <r>
+      <t xml:space="preserve">Back-End
+(Java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채용</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,15 +354,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +651,7 @@
   <dimension ref="A4:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -646,24 +660,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -719,205 +733,211 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="5"/>
       <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" t="s">
+    <row r="12" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="4"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="4"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="4"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="4"/>
+      <c r="C45" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B4:Q4"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C45"/>
     <mergeCell ref="C15:C35"/>
     <mergeCell ref="A15:A35"/>
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
